--- a/Excel/trip_3_9.xlsx
+++ b/Excel/trip_3_9.xlsx
@@ -2906,9 +2906,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="43"/>
-      <c r="F10" s="44">
-        <v>12.0</v>
-      </c>
+      <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
@@ -3024,7 +3022,9 @@
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
+      <c r="F14" s="51">
+        <v>222.0</v>
+      </c>
       <c r="G14" s="51"/>
       <c r="H14" s="51"/>
       <c r="I14" s="51"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="J24" s="75">
         <f aca="false">IF(C24="C",(I24*0.3),IF(AND(D24&gt;=DATE(2015,1,1),D24&lt;=DATE(2015,12,31)),I24*0.575,IF(AND(D24&gt;=DATE(2016,1,1),D24&lt;=DATE(2016,12,31)),I24*0.54,IF(AND(D24&gt;=DATE(2017,1,1),D24&lt;=DATE(2017,12,31)),I24*0.535, I24*0))))</f>
-        <v>12.0</v>
+        <v>222.0</v>
       </c>
       <c r="K24" s="76">
         <v>12.0</v>
@@ -3582,11 +3582,11 @@
         <v/>
       </c>
       <c r="K36" s="73" t="str">
-        <v>qw</v>
+        <v>2</v>
       </c>
       <c r="L36" s="73"/>
       <c r="M36" s="108">
-        <v>12.0</v>
+        <v>22445.0</v>
       </c>
     </row>
     <row r="37" spans="1:13" customFormat="false" ht="15" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="E40" s="112">
         <f aca="false">IF(M4="Y",SUM(E36:E39,'Page 2'!E40,'Page 3'!E40),SUM(E36:E39))</f>
-        <v>48.0</v>
+        <v>136.0</v>
       </c>
       <c r="F40" s="113"/>
       <c r="G40" s="73"/>
@@ -3670,7 +3670,7 @@
       <c r="L40" s="115"/>
       <c r="M40" s="116">
         <f aca="false">IF(M4="Y",SUM(M36:M39,I36:I40,'Page 2'!M40,'Page 3'!M40),SUM(M36:M39,I36:I40))</f>
-        <v>24.0</v>
+        <v>22445.0</v>
       </c>
     </row>
     <row r="41" spans="1:13" customFormat="false" ht="15.75" hidden="false" customHeight="1" outlineLevel="0" collapsed="false">
